--- a/jpcore-r4/feature/swg2-observation.identifierの必須指定/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg2-observation.identifierの必須指定/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T13:55:34+00:00</t>
+    <t>2022-09-20T15:48:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
